--- a/FORMATOS DE RESIDENCIA/FORMATOS RELLENADOS/Copia de HOJA DE REVISORES 2020.xlsx
+++ b/FORMATOS DE RESIDENCIA/FORMATOS RELLENADOS/Copia de HOJA DE REVISORES 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS DE RESIDENCIA/FORMATOS RELLENADOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B822B-B1EF-44F7-95DE-A3BBEE568E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B822B-B1EF-44F7-95DE-A3BBEE568E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,83 +351,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:M16"/>
     </sheetView>
   </sheetViews>
@@ -860,102 +860,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -975,18 +975,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="31">
         <v>44153</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -998,18 +998,18 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1026,308 +1026,308 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="14">
+      <c r="D20" s="16">
         <v>15161317</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="14">
+      <c r="D21" s="16">
         <v>15161377</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="20" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1335,37 +1335,55 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="J51" s="18" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="J51" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="J55" s="18" t="s">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="J55" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A42:K42"/>
@@ -1382,24 +1400,6 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
@@ -1427,102 +1427,102 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -1536,24 +1536,24 @@
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -1563,11 +1563,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1587,286 +1587,286 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="34"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="38"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="39"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="20" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1874,37 +1874,55 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="J52" s="18" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="J52" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="J56" s="18" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="J56" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="L43:M43"/>
@@ -1921,24 +1939,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
